--- a/data/blogs.xlsx
+++ b/data/blogs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>when</t>
         </is>
       </c>
@@ -458,20 +463,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>## 1. 촬영 전 확인
-- 연령, 통증/감각이상, 매복치 여부, 이전 치료 유무
-## 2. 이미지에서 볼 포인트
-- 경계와 피질화: 치낭낭종은 얇고 균일 / OKC는 물결형 또는 scalloping 가능
-- 내부 음영: 대부분 방사선투과성이나, 섬유성/골성 병변과의 중첩 고려
-- 주변 구조: 하치조신경관, 치근 흡수 여부, 매복치의 위치
-## 3. 감별 팁
-- **치낭낭종**: 매복치의 치관을 감싸는 원형/난원형 투과성 + 얇은 피질 경계
-- **OKC**: 후방 하악, 재발률↑, 다방성 소견 동반 가능
-## 4. 한 줄 정리
-경계(피질화)와 매복치의 관계를 먼저 본다.</t>
+          <t>## 촬영 전 확인
+연령, 매복치 여부 등
+## 이미지 포인트
+- 치낭낭종: 균일, 얇은 피질
+- OKC: scalloping, 재발률↑</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>영상감별</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
@@ -485,16 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>## 1. 임상과 영상 결합
-- 생활력, 타진/온도 반응, 동요도 등과 함께 판독
-## 2. 영상 핵심
-- 급성 염증(농양): 임상증상 동반, 경계 불명확
-- 만성 염증/낭성: 경계 비교적 명확, 치근단 중심
-## 3. 오류 피하기
-- 근단 주위 해부학적 방사선투과부위(하치조관, mental foramen)와의 오인 주의</t>
+          <t>## 임상과 영상 결합
+- 농양: 급성, 경계 불명확
+- 낭종: 만성, 경계 명확</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>근단병소</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>2025-09-25</t>
         </is>
